--- a/data-for-figs/SangerMock_compare-blast_v_bowtie2_blca-qiime2/Anacapa_bowtie2_vs_blast_blca_vs_Qiime_obitools.xlsx
+++ b/data-for-figs/SangerMock_compare-blast_v_bowtie2_blca-qiime2/Anacapa_bowtie2_vs_blast_blca_vs_Qiime_obitools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="29200" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="16S" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="399">
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>HMP</t>
-  </si>
-  <si>
-    <t>Extreme</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="400">
   <si>
     <t>read_01</t>
   </si>
@@ -1233,6 +1224,18 @@
   </si>
   <si>
     <t>Eustigmatophyceae;NA;Eustigmatales;Monodopsidaceae;Nannochloropsi;</t>
+  </si>
+  <si>
+    <t>Krohn et al. 2016</t>
+  </si>
+  <si>
+    <t>Callahan et al. 2016</t>
+  </si>
+  <si>
+    <t>Kozich et al. 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table X.  18S V4 Taxonomic assigment given BLAST blca, bowtie2 blca, and Qiime2 sklearn classifier with a 60% confidence cut off using CRUX filtered reference library </t>
   </si>
 </sst>
 </file>
@@ -1355,9 +1358,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1375,6 +1375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1383,18 +1386,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1669,13 +1661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="100.6640625" customWidth="1"/>
     <col min="6" max="6" width="102" customWidth="1"/>
     <col min="7" max="7" width="103.83203125" customWidth="1"/>
@@ -1690,17 +1684,17 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1711,43 +1705,43 @@
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" s="14"/>
+      <c r="K3" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1755,32 +1749,30 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1792,28 +1784,28 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1825,28 +1817,28 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1858,28 +1850,28 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1891,28 +1883,28 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1924,28 +1916,28 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1957,28 +1949,28 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1990,28 +1982,28 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2023,28 +2015,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2056,28 +2048,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2089,28 +2081,28 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2122,28 +2114,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2155,28 +2147,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2188,28 +2180,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2221,28 +2213,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2254,28 +2246,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2287,28 +2279,28 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2320,28 +2312,28 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2353,28 +2345,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2386,28 +2378,28 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2419,28 +2411,28 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -2452,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2485,28 +2477,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2518,28 +2510,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2551,28 +2543,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -2584,28 +2576,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -2617,28 +2609,28 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -2650,28 +2642,28 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2683,28 +2675,28 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2716,28 +2708,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G33" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2749,28 +2741,28 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M34"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2782,28 +2774,28 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2815,28 +2807,28 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M36"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2848,28 +2840,28 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G37" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M37"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -2881,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G38" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M38"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2914,28 +2906,28 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M39"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2947,28 +2939,28 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M40"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -2980,28 +2972,28 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -3013,28 +3005,28 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M42"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -3046,28 +3038,28 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M43"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -3079,28 +3071,28 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M44"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -3112,28 +3104,28 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M45"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -3145,28 +3137,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -3178,28 +3170,28 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M47"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -3211,28 +3203,28 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M48"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -3244,28 +3236,28 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M49"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -3277,28 +3269,28 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I50" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M50"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -3310,28 +3302,28 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M51"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -3343,28 +3335,28 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M52"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -3376,28 +3368,28 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M53"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -3409,28 +3401,28 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -3442,28 +3434,28 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -3475,28 +3467,28 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G56" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M56"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -3508,28 +3500,28 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G57" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M57"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -3541,28 +3533,28 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -3574,28 +3566,28 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -3607,28 +3599,28 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I60" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M60"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -3640,28 +3632,28 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M61"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -3673,28 +3665,28 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M62"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -3706,28 +3698,28 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M63"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -3739,28 +3731,28 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G64" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M64"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -3772,61 +3764,61 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M65"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="2">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
       <c r="F66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I66" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M66"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -3838,28 +3830,28 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G67" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I67" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M67"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -3871,28 +3863,28 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I68" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M68"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -3904,28 +3896,28 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G69" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M69"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -3937,28 +3929,28 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M70"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -3970,28 +3962,28 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M71"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -4003,28 +3995,28 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G72" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I72" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M72"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -4036,28 +4028,28 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M73"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -4069,28 +4061,28 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M74"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -4102,28 +4094,28 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M75"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -4135,28 +4127,28 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M76"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -4168,29 +4160,29 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K77" s="5"/>
       <c r="M77"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -4202,22 +4194,22 @@
         <v>0</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F78" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K78" s="6"/>
       <c r="M78" s="6"/>
@@ -4227,494 +4219,494 @@
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D128" s="1"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D129" s="1"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D135" s="1"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D136" s="1"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D137" s="1"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D138" s="1"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D139" s="1"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D140" s="1"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D141" s="1"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D143" s="1"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D144" s="1"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D145" s="1"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D146" s="1"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D147" s="1"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D148" s="1"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D149" s="1"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D150" s="1"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D151" s="1"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D152" s="1"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D153" s="1"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D154" s="1"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D155" s="11"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="19"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E156" s="22"/>
-      <c r="F156" s="19"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E157" s="22"/>
-      <c r="F157" s="19"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E158" s="22"/>
-      <c r="F158" s="19"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E159" s="22"/>
-      <c r="F159" s="19"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E160" s="22"/>
-      <c r="F160" s="19"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="18"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E161" s="22"/>
-      <c r="F161" s="19"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="18"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E162" s="22"/>
-      <c r="F162" s="19"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="18"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E163" s="22"/>
-      <c r="F163" s="19"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="18"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E164" s="22"/>
+      <c r="E164" s="21"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E165" s="22"/>
+      <c r="E165" s="21"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E166" s="22"/>
+      <c r="E166" s="21"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E167" s="22"/>
+      <c r="E167" s="21"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E168" s="22"/>
+      <c r="E168" s="21"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E169" s="22"/>
+      <c r="E169" s="21"/>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E170" s="22"/>
+      <c r="E170" s="21"/>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E171" s="22"/>
+      <c r="E171" s="21"/>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E172" s="22"/>
+      <c r="E172" s="21"/>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E173" s="22"/>
+      <c r="E173" s="21"/>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E174" s="22"/>
+      <c r="E174" s="21"/>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E175" s="22"/>
+      <c r="E175" s="21"/>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E176" s="22"/>
+      <c r="E176" s="21"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E177" s="22"/>
+      <c r="E177" s="21"/>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E178" s="22"/>
+      <c r="E178" s="21"/>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E179" s="22"/>
+      <c r="E179" s="21"/>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E180" s="22"/>
+      <c r="E180" s="21"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E181" s="22"/>
+      <c r="E181" s="21"/>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E182" s="22"/>
+      <c r="E182" s="21"/>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E183" s="22"/>
+      <c r="E183" s="21"/>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E184" s="22"/>
+      <c r="E184" s="21"/>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E185" s="22"/>
+      <c r="E185" s="21"/>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E186" s="22"/>
+      <c r="E186" s="21"/>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E187" s="22"/>
+      <c r="E187" s="21"/>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E188" s="22"/>
+      <c r="E188" s="21"/>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E189" s="22"/>
+      <c r="E189" s="21"/>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E190" s="22"/>
+      <c r="E190" s="21"/>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E191" s="22"/>
+      <c r="E191" s="21"/>
     </row>
   </sheetData>
   <sortState ref="O1:O170">
@@ -4731,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4746,71 +4738,71 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>322</v>
+      <c r="H2" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -4818,31 +4810,31 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R4">
         <v>0.92</v>
@@ -4850,31 +4842,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R5">
         <v>0.62</v>
@@ -4882,31 +4874,31 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R6">
         <v>0.95</v>
@@ -4914,31 +4906,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="R7">
         <v>0.93</v>
@@ -4946,31 +4938,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R8">
         <v>0.66</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="R9">
         <v>0.63</v>
@@ -5010,31 +5002,31 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R10">
         <v>0.68</v>
@@ -5042,31 +5034,31 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R11">
         <v>0.99</v>
@@ -5074,31 +5066,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -5106,31 +5098,31 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R13">
         <v>0.63</v>
@@ -5138,31 +5130,31 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -5170,12 +5162,12 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5192,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5210,317 +5202,317 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>322</v>
+      <c r="H2" s="16" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5532,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5553,793 +5545,793 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="V2" s="15"/>
+      <c r="H2" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
         <v>205</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N36" s="6"/>
     </row>
